--- a/data/scheduling_DNN/predict/0.9/result22.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result22.xlsx
@@ -570,10 +570,10 @@
         <v>1.342206001281738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.86552494764328</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5587311387062073</v>
+        <v>0.2272248268127441</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9773969650268555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3990631401538849</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03075483813881874</v>
+        <v>0.3344700336456299</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9132218360900879</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.3990480601787567</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01180590409785509</v>
+        <v>0.2643746435642242</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8862838745117188</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4003840982913971</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007976647466421127</v>
+        <v>0.23609858751297</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8809549808502197</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.400417685508728</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00609670951962471</v>
+        <v>0.2309160977602005</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8732669353485107</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8867427110671997</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08824340999126434</v>
+        <v>0.000181596537004225</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8806121349334717</v>
       </c>
       <c r="V8" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8647972941398621</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05069109424948692</v>
+        <v>0.000250109180342406</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9587018489837646</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5008493065834045</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3247902095317841</v>
+        <v>0.2096289545297623</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938717842102051</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5345303416252136</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0970180332660675</v>
+        <v>0.1291262656450272</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5327032804489136</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08304348587989807</v>
+        <v>0.1199441701173782</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8729121685028076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5165321230888367</v>
       </c>
       <c r="W12" t="n">
-        <v>0.146823063492775</v>
+        <v>0.1270067393779755</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9231510162353516</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8736380934715271</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1748338788747787</v>
+        <v>0.002451529493555427</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8762860298156738</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.531616747379303</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2761889100074768</v>
+        <v>0.1187969148159027</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9021298885345459</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4023552536964417</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1581419706344604</v>
+        <v>0.2497746795415878</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8747210502624512</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.402334451675415</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03549827635288239</v>
+        <v>0.2231491059064865</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9448649883270264</v>
       </c>
       <c r="V17" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3990493714809418</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2779740691184998</v>
+        <v>0.2979146540164948</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.937993049621582</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8684830069541931</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1885138899087906</v>
+        <v>0.004831646103411913</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.25940990447998</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8762132525444031</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5395155549049377</v>
+        <v>0.1468396782875061</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>1.516690015792847</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.874961256980896</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2926332354545593</v>
+        <v>0.4118157923221588</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.938385009765625</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5340932607650757</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2004668563604355</v>
+        <v>0.1634518206119537</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5490059852600098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8864428400993347</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03929132595658302</v>
+        <v>0.1138636320829391</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5419609546661377</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8765385150909424</v>
       </c>
       <c r="W23" t="n">
-        <v>1.843280301727646e-06</v>
+        <v>0.1119421422481537</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5851378440856934</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.5238061547279358</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01527947373688221</v>
+        <v>0.003761576022952795</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5335700511932373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.3999610543251038</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1953850984573364</v>
+        <v>0.01785136386752129</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451769828796387</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.3998346924781799</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01628436520695686</v>
+        <v>0.02112438157200813</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5256309509277344</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8750454187393188</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03186571598052979</v>
+        <v>0.1220904737710953</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.524014949798584</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8739122152328491</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003388981800526381</v>
+        <v>0.1224280968308449</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5397899150848389</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8671920299530029</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03572952002286911</v>
+        <v>0.1071921437978745</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5469319820404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5294515490531921</v>
       </c>
       <c r="W30" t="n">
-        <v>0.006963841151446104</v>
+        <v>0.0003055655397474766</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5215559005737305</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.3990488946437836</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02928757853806019</v>
+        <v>0.01500796619802713</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5389750003814697</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.881369411945343</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03541711717844009</v>
+        <v>0.11723393201828</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233540534973145</v>
       </c>
       <c r="V33" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5081394910812378</v>
       </c>
       <c r="W33" t="n">
-        <v>0.07787641882896423</v>
+        <v>0.0002314829034730792</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5361299514770508</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5206250548362732</v>
       </c>
       <c r="W34" t="n">
-        <v>9.816650708671659e-05</v>
+        <v>0.0002404018159722909</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8755844831466675</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01648552715778351</v>
+        <v>0.1223071664571762</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5260269641876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.4004146158695221</v>
       </c>
       <c r="W36" t="n">
-        <v>0.003870049957185984</v>
+        <v>0.01577846147119999</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5261528491973877</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5246067047119141</v>
       </c>
       <c r="W37" t="n">
-        <v>0.09941408038139343</v>
+        <v>2.390562713117106e-06</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5310781002044678</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3991844952106476</v>
       </c>
       <c r="W38" t="n">
-        <v>0.029759731143713</v>
+        <v>0.01739592291414738</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8606337904930115</v>
       </c>
       <c r="W39" t="n">
-        <v>0.003578153904527426</v>
+        <v>0.113529846072197</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5794110298156738</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.4027957320213318</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01336029823869467</v>
+        <v>0.0311929639428854</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5270490646362305</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8820987343788147</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03240450844168663</v>
+        <v>0.1260602623224258</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3987400531768799</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4003572165966034</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0003571911074686795</v>
+        <v>2.615217454149388e-06</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4137330055236816</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8898286819458008</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001173766329884529</v>
+        <v>0.2266670912504196</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3927619457244873</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.4003677368164062</v>
       </c>
       <c r="W44" t="n">
-        <v>0.08996696770191193</v>
+        <v>5.784805762232281e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3927068710327148</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5162450671195984</v>
       </c>
       <c r="W45" t="n">
-        <v>0.009620401076972485</v>
+        <v>0.01526168547570705</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4496729373931885</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5176165699958801</v>
       </c>
       <c r="W46" t="n">
-        <v>0.005585834849625826</v>
+        <v>0.004616337362676859</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4260520935058594</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.4003770053386688</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0511237308382988</v>
+        <v>0.0006592101417481899</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3977460861206055</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.3990658819675446</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1650287508964539</v>
+        <v>1.741861069604056e-06</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939359188079834</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.884215235710144</v>
       </c>
       <c r="W49" t="n">
-        <v>0.001799362828023732</v>
+        <v>0.2403738051652908</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3958051204681396</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8731641173362732</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01190700754523277</v>
+        <v>0.2278716117143631</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3941810131072998</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.4972253739833832</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0004969207802787423</v>
+        <v>0.01061813998967409</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4424741268157959</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5161628127098083</v>
       </c>
       <c r="W52" t="n">
-        <v>0.008414977230131626</v>
+        <v>0.00543002225458622</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3966560363769531</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8683889508247375</v>
       </c>
       <c r="W53" t="n">
-        <v>0.09698302298784256</v>
+        <v>0.2225319445133209</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3940250873565674</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8728125691413879</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03312243148684502</v>
+        <v>0.2292374521493912</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.396367073059082</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5206565260887146</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0003284971753600985</v>
+        <v>0.01544786803424358</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3932750225067139</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.4003465175628662</v>
       </c>
       <c r="W56" t="n">
-        <v>0.000454821391031146</v>
+        <v>5.000604141969234e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3882350921630859</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5273854732513428</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1713809221982956</v>
+        <v>0.01936282776296139</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4023089408874512</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8703870177268982</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0005630836822092533</v>
+        <v>0.2190970927476883</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3948659896850586</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8742492198944092</v>
       </c>
       <c r="W59" t="n">
-        <v>0.009124911390244961</v>
+        <v>0.2298082858324051</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3963580131530762</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8699954748153687</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06612756103277206</v>
+        <v>0.2243324518203735</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3960599899291992</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4010374844074249</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01651258394122124</v>
+        <v>2.477545058354735e-05</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8869621753692627</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4002777338027954</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1569180488586426</v>
+        <v>0.2368617504835129</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8724710941314697</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4003990292549133</v>
       </c>
       <c r="W63" t="n">
-        <v>0.004927968140691519</v>
+        <v>0.222852036356926</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8696370124816895</v>
       </c>
       <c r="V64" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8851571679115295</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1438739895820618</v>
+        <v>0.0002408752188785002</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8761568069458008</v>
       </c>
       <c r="V65" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5290405750274658</v>
       </c>
       <c r="W65" t="n">
-        <v>0.005553309340029955</v>
+        <v>0.1204896792769432</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8929910659790039</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5342316627502441</v>
       </c>
       <c r="W66" t="n">
-        <v>0.004012054763734341</v>
+        <v>0.1287083029747009</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8691060543060303</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8738530874252319</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1185639351606369</v>
+        <v>2.25343228521524e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9075441360473633</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.3990373015403748</v>
       </c>
       <c r="W68" t="n">
-        <v>0.04895720630884171</v>
+        <v>0.2585791945457458</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8740408420562744</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5165066123008728</v>
       </c>
       <c r="W69" t="n">
-        <v>0.136120542883873</v>
+        <v>0.1278307288885117</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8886280059814453</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8768258690834045</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2219134718179703</v>
+        <v>0.0001392904378008097</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9271600246429443</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.4022761881351471</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1907437443733215</v>
+        <v>0.2755030691623688</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8688631057739258</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.4003919064998627</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04635689780116081</v>
+        <v>0.2194652706384659</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8749961853027344</v>
       </c>
       <c r="V73" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8840039372444153</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02786216884851456</v>
+        <v>8.113959484035149e-05</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8785560131072998</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8783115148544312</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2124490439891815</v>
+        <v>5.977939565582346e-08</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9640328884124756</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.515829861164093</v>
       </c>
       <c r="W75" t="n">
-        <v>0.09622850269079208</v>
+        <v>0.2008859515190125</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8939120769500732</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.3990514576435089</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1870269179344177</v>
+        <v>0.244887039065361</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8707830905914307</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.3999725580215454</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1444448530673981</v>
+        <v>0.2216625511646271</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8731839656829834</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5349644422531128</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1698054224252701</v>
+        <v>0.1143924444913864</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9325888156890869</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5152543187141418</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01744807511568069</v>
+        <v>0.1741680800914764</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8678898811340332</v>
       </c>
       <c r="V80" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8744096755981445</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1178192794322968</v>
+        <v>4.250771962688304e-05</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8697571754455566</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.4010734558105469</v>
       </c>
       <c r="W81" t="n">
-        <v>0.004440582357347012</v>
+        <v>0.2196644246578217</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5568859577178955</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.5279359817504883</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00915044266730547</v>
+        <v>0.0008381010848097503</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5416650772094727</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8871748447418213</v>
       </c>
       <c r="W83" t="n">
-        <v>0.06920193135738373</v>
+        <v>0.119377002120018</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5204131603240967</v>
       </c>
       <c r="V84" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.3990688621997833</v>
       </c>
       <c r="W84" t="n">
-        <v>0.2076316177845001</v>
+        <v>0.01472443901002407</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5267789363861084</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8638971447944641</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0005622720927931368</v>
+        <v>0.1136486828327179</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5216360092163086</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8702130913734436</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02919693663716316</v>
+        <v>0.1215059831738472</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5195479393005371</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.869596004486084</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0001988255535252392</v>
+        <v>0.1225336492061615</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5234050750732422</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4022443294525146</v>
       </c>
       <c r="W88" t="n">
-        <v>0.00350700318813324</v>
+        <v>0.01467992644757032</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5823941230773926</v>
       </c>
       <c r="V89" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8897208571434021</v>
       </c>
       <c r="W89" t="n">
-        <v>0.04837853461503983</v>
+        <v>0.0944497212767601</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5251171588897705</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8703737258911133</v>
       </c>
       <c r="W90" t="n">
-        <v>0.07579509168863297</v>
+        <v>0.1192020997405052</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5282690525054932</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5165996551513672</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0292255524545908</v>
+        <v>0.0001361748290946707</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5239849090576172</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.4009078443050385</v>
       </c>
       <c r="W92" t="n">
-        <v>6.563370789081091e-07</v>
+        <v>0.01514796353876591</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5239300727844238</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.8670937418937683</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001122942077927291</v>
+        <v>0.1177613064646721</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5278730392456055</v>
       </c>
       <c r="V94" t="n">
-        <v>0.97564297914505</v>
+        <v>0.8722260594367981</v>
       </c>
       <c r="W94" t="n">
-        <v>0.2004979252815247</v>
+        <v>0.1185790002346039</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5188009738922119</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8667199015617371</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02151184901595116</v>
+        <v>0.1210475787520409</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5258519649505615</v>
       </c>
       <c r="V96" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8705418705940247</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0332210473716259</v>
+        <v>0.1188111305236816</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5227510929107666</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5354464054107666</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0771263986825943</v>
+        <v>0.0001611709594726562</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5279080867767334</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.869697630405426</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002334833377972245</v>
+        <v>0.1168200895190239</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220367908477783</v>
       </c>
       <c r="V99" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5351933240890503</v>
       </c>
       <c r="W99" t="n">
-        <v>0.07729901373386383</v>
+        <v>0.0001730943622533232</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5400731563568115</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.3991822302341461</v>
       </c>
       <c r="W100" t="n">
-        <v>0.002538284752517939</v>
+        <v>0.01985025219619274</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5267329216003418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.3990364372730255</v>
       </c>
       <c r="W101" t="n">
-        <v>0.004252975806593895</v>
+        <v>0.01630639284849167</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4150691032409668</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8715884685516357</v>
       </c>
       <c r="W102" t="n">
-        <v>6.660947292402852e-06</v>
+        <v>0.2084099352359772</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4059710502624512</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5259703993797302</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0007453779107891023</v>
+        <v>0.01439984422177076</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4022119045257568</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.857967734336853</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0005691861733794212</v>
+        <v>0.2077133804559708</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4207131862640381</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3997839391231537</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0775679349899292</v>
+        <v>0.0004380333994049579</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.39255690574646</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5148438215255737</v>
       </c>
       <c r="W106" t="n">
-        <v>0.09017160534858704</v>
+        <v>0.0149540901184082</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3963751792907715</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.516606867313385</v>
       </c>
       <c r="W107" t="n">
-        <v>0.004192464053630829</v>
+        <v>0.01445565838366747</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3937528133392334</v>
       </c>
       <c r="V108" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.528982400894165</v>
       </c>
       <c r="W108" t="n">
-        <v>0.3385777771472931</v>
+        <v>0.01828704215586185</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.395982027053833</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4000944793224335</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1642509996891022</v>
+        <v>1.691226316324901e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3957040309906006</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8662139773368835</v>
       </c>
       <c r="W110" t="n">
-        <v>0.001937985769473016</v>
+        <v>0.2213796079158783</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3968808650970459</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3998850286006927</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01658588647842407</v>
+        <v>9.024998689710628e-06</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4460499286651611</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5294165015220642</v>
       </c>
       <c r="W112" t="n">
-        <v>0.005495177116245031</v>
+        <v>0.006949985399842262</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4010078907012939</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3991804420948029</v>
       </c>
       <c r="W113" t="n">
-        <v>0.08516555279493332</v>
+        <v>3.33956836584548e-06</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.395226001739502</v>
       </c>
       <c r="V114" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.516277015209198</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3367506265640259</v>
+        <v>0.01465334743261337</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4001700878143311</v>
       </c>
       <c r="V115" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5210272073745728</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0107334591448307</v>
+        <v>0.01460644323378801</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3981449604034424</v>
       </c>
       <c r="V116" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8744502663612366</v>
       </c>
       <c r="W116" t="n">
-        <v>0.00850555207580328</v>
+        <v>0.226866751909256</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3904159069061279</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.3999651670455933</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01009304821491241</v>
+        <v>9.118836896959692e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4669492244720459</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3998289406299591</v>
       </c>
       <c r="W118" t="n">
-        <v>0.005988997872918844</v>
+        <v>0.00450513232499361</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3957831859588623</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.874277651309967</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0005655090790241957</v>
+        <v>0.2289569526910782</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995671272277832</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.4021752774715424</v>
       </c>
       <c r="W120" t="n">
-        <v>0.008288918994367123</v>
+        <v>6.802447842346737e-06</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3945350646972656</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8664593100547791</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1972306072711945</v>
+        <v>0.2227124869823456</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8897221088409424</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5176330208778381</v>
       </c>
       <c r="W122" t="n">
-        <v>0.007633158937096596</v>
+        <v>0.1384502947330475</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9937980175018311</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8764162659645081</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1744353920221329</v>
+        <v>0.01377847604453564</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8981039524078369</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8825473189353943</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2308211475610733</v>
+        <v>0.0002420088421786204</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8838739395141602</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5223742723464966</v>
       </c>
       <c r="W125" t="n">
-        <v>0.129148855805397</v>
+        <v>0.1306820064783096</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8969249725341797</v>
       </c>
       <c r="V126" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5365887880325317</v>
       </c>
       <c r="W126" t="n">
-        <v>0.241516962647438</v>
+        <v>0.1298421621322632</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9343900680541992</v>
       </c>
       <c r="V127" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5205353498458862</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1281946301460266</v>
+        <v>0.1712757349014282</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8711130619049072</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5189476013183594</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2057530581951141</v>
+        <v>0.1240205094218254</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.869624137878418</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5161228775978088</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1438461095094681</v>
+        <v>0.124963141977787</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8828458786010742</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5163680911064148</v>
       </c>
       <c r="W130" t="n">
-        <v>0.216425359249115</v>
+        <v>0.1343059688806534</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9320499897003174</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.4009446203708649</v>
       </c>
       <c r="W131" t="n">
-        <v>0.07765734195709229</v>
+        <v>0.2820729315280914</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8754210472106934</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.3990291059017181</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2791954874992371</v>
+        <v>0.2269492745399475</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8792459964752197</v>
       </c>
       <c r="V133" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8674266934394836</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2130891978740692</v>
+        <v>0.0001396959269186482</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8755419254302979</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5266971588134766</v>
       </c>
       <c r="W134" t="n">
-        <v>0.04947549849748611</v>
+        <v>0.1216926723718643</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9424901008605957</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5274559259414673</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1341679096221924</v>
+        <v>0.1722533702850342</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.875154972076416</v>
       </c>
       <c r="V136" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8882967233657837</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01001120172441006</v>
+        <v>0.0001727056223899126</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8716340065002441</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5290977954864502</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2705451846122742</v>
+        <v>0.1173310577869415</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8704140186309814</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.4001112878322601</v>
       </c>
       <c r="W138" t="n">
-        <v>0.04824754968285561</v>
+        <v>0.2211846560239792</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.936373233795166</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8745173811912537</v>
       </c>
       <c r="W139" t="n">
-        <v>0.3429640233516693</v>
+        <v>0.003826146479696035</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8758339881896973</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5271151065826416</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08623870462179184</v>
+        <v>0.121604859828949</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8736388683319092</v>
       </c>
       <c r="V141" t="n">
-        <v>0.654336154460907</v>
+        <v>0.5176418423652649</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04809368029236794</v>
+        <v>0.1267338842153549</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367980003356934</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8767136931419373</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02632583118975163</v>
+        <v>0.1155426800251007</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5830550193786621</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5059747695922852</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01349758543074131</v>
+        <v>0.005941364914178848</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5311100482940674</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.4023702144622803</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0128782857209444</v>
+        <v>0.01657394506037235</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5249888896942139</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.867412269115448</v>
       </c>
       <c r="W145" t="n">
-        <v>0.07713600248098373</v>
+        <v>0.1172537729144096</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5285849571228027</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5227528810501099</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02912433259189129</v>
+        <v>3.401311187190004e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5333991050720215</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5355387330055237</v>
       </c>
       <c r="W147" t="n">
-        <v>0.07192515581846237</v>
+        <v>4.578007519739913e-06</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5285530090332031</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4009112417697906</v>
       </c>
       <c r="W148" t="n">
-        <v>0.004156464710831642</v>
+        <v>0.01629242114722729</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.526259183883667</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8978222012519836</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01616022549569607</v>
+        <v>0.1380590796470642</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5314209461212158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.8877310752868652</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02573022618889809</v>
+        <v>0.1269569098949432</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5219159126281738</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.3990373015403748</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0002788710698951036</v>
+        <v>0.01509915292263031</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5245277881622314</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.4010485708713531</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01141799241304398</v>
+        <v>0.01524711679667234</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5265259742736816</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.873921811580658</v>
       </c>
       <c r="W153" t="n">
-        <v>0.09190306812524796</v>
+        <v>0.1206838712096214</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5716469287872314</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.8752787113189697</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02374899573624134</v>
+        <v>0.09219226241111755</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299220085144043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5164883136749268</v>
       </c>
       <c r="W155" t="n">
-        <v>0.09251432120800018</v>
+        <v>0.0001804641506168991</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5253429412841797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5283283591270447</v>
       </c>
       <c r="W156" t="n">
-        <v>0.03337943553924561</v>
+        <v>8.912719749787357e-06</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5179848670959473</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.3990669548511505</v>
       </c>
       <c r="W157" t="n">
-        <v>4.880117194261402e-05</v>
+        <v>0.01414147019386292</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5267429351806641</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5292018055915833</v>
       </c>
       <c r="W158" t="n">
-        <v>0.09452120959758759</v>
+        <v>6.046043836249737e-06</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.521622896194458</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.4003863632678986</v>
       </c>
       <c r="W159" t="n">
-        <v>0.00533949350938201</v>
+        <v>0.01469829678535461</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5233471393585205</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.868629515171051</v>
       </c>
       <c r="W160" t="n">
-        <v>2.153107743652072e-06</v>
+        <v>0.1192199215292931</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5269260406494141</v>
       </c>
       <c r="V161" t="n">
-        <v>0.505433976650238</v>
+        <v>0.8781139850616455</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0004619088140316308</v>
+        <v>0.1233329698443413</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3999547958374023</v>
       </c>
       <c r="V162" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8744215965270996</v>
       </c>
       <c r="W162" t="n">
-        <v>0.3308857977390289</v>
+        <v>0.2251187413930893</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4008548259735107</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8805630803108215</v>
       </c>
       <c r="W163" t="n">
-        <v>0.008002875372767448</v>
+        <v>0.2301200032234192</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3978359699249268</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8748078346252441</v>
       </c>
       <c r="W164" t="n">
-        <v>0.03413831815123558</v>
+        <v>0.2275021523237228</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4433770179748535</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.3998742997646332</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01767258159816265</v>
+        <v>0.001892486470751464</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3995380401611328</v>
       </c>
       <c r="V166" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5324392318725586</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0003285155398771167</v>
+        <v>0.01766272634267807</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3974969387054443</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5216959714889526</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03193536400794983</v>
+        <v>0.01542539987713099</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3983309268951416</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.566477358341217</v>
       </c>
       <c r="W168" t="n">
-        <v>0.000373612972907722</v>
+        <v>0.02827322296798229</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4111289978027344</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8649671077728271</v>
       </c>
       <c r="W169" t="n">
-        <v>0.003371758386492729</v>
+        <v>0.2059690356254578</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3988070487976074</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5307207703590393</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004227099940180779</v>
+        <v>0.01740122959017754</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3976080417633057</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5653929710388184</v>
       </c>
       <c r="W171" t="n">
-        <v>0.004340630024671555</v>
+        <v>0.02815178222954273</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4016599655151367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.4010376036167145</v>
       </c>
       <c r="W172" t="n">
-        <v>0.007929891347885132</v>
+        <v>3.873343246141303e-07</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3991079330444336</v>
       </c>
       <c r="V173" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="W173" t="n">
-        <v>0.06471193581819534</v>
+        <v>1.041503855958581e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4213919639587402</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5275962948799133</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05404461920261383</v>
+        <v>0.01127935945987701</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3998570442199707</v>
       </c>
       <c r="V175" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5199559926986694</v>
       </c>
       <c r="W175" t="n">
-        <v>0.09224989265203476</v>
+        <v>0.01442375779151917</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4042558670043945</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4009328484535217</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06276223808526993</v>
+        <v>1.104245257010916e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4181950092315674</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4009134769439697</v>
       </c>
       <c r="W177" t="n">
-        <v>0.007453537080436945</v>
+        <v>0.0002986513718497008</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3984708786010742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8740501999855042</v>
       </c>
       <c r="W178" t="n">
-        <v>0.005003344267606735</v>
+        <v>0.2261756956577301</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3984289169311523</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.534466028213501</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03163475915789604</v>
+        <v>0.01850609481334686</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3977501392364502</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.4009469747543335</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0006624937523156404</v>
+        <v>1.021975731418934e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4098081588745117</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8816254138946533</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0009549795649945736</v>
+        <v>0.2226115167140961</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9138419628143311</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.399270623922348</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06798067688941956</v>
+        <v>0.2647836208343506</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>1.059429883956909</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8871347904205322</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1649124473333359</v>
+        <v>0.02968559972941875</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8854150772094727</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5343050360679626</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2634948790073395</v>
+        <v>0.1232782602310181</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.876882791519165</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.881822943687439</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2110440284013748</v>
+        <v>2.440510434098542e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8744971752166748</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4010615646839142</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2731561660766602</v>
+        <v>0.2241412699222565</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8969740867614746</v>
       </c>
       <c r="V187" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.889978289604187</v>
       </c>
       <c r="W187" t="n">
-        <v>0.006177293136715889</v>
+        <v>4.894117955700494e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8783450126647949</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.3998019099235535</v>
       </c>
       <c r="W188" t="n">
-        <v>0.001612648484297097</v>
+        <v>0.2290035039186478</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8763570785522461</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8759741187095642</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1372863948345184</v>
+        <v>1.466582375542202e-07</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8776209354400635</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.52950119972229</v>
       </c>
       <c r="W190" t="n">
-        <v>0.05008729547262192</v>
+        <v>0.1211873516440392</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.900536060333252</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.5173996090888977</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2796275019645691</v>
+        <v>0.14679354429245</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8763070106506348</v>
       </c>
       <c r="V192" t="n">
-        <v>0.838257908821106</v>
+        <v>0.402584582567215</v>
       </c>
       <c r="W192" t="n">
-        <v>0.001447734190151095</v>
+        <v>0.2244129329919815</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742308616638184</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.4027027785778046</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1687118858098984</v>
+        <v>0.2223387360572815</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4003385305404663</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2551993727684021</v>
+        <v>0.2274654358625412</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.876823902130127</v>
       </c>
       <c r="V195" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8644289374351501</v>
       </c>
       <c r="W195" t="n">
-        <v>0.08190480619668961</v>
+        <v>0.0001536351483082399</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8722898960113525</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.400431752204895</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1668163388967514</v>
+        <v>0.2226501107215881</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8927888870239258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.399772971868515</v>
       </c>
       <c r="W197" t="n">
-        <v>0.05706074088811874</v>
+        <v>0.2430646866559982</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9061059951782227</v>
       </c>
       <c r="V198" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8767750859260559</v>
       </c>
       <c r="W198" t="n">
-        <v>0.0111653245985508</v>
+        <v>0.0008603022433817387</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8935010433197021</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.4021840691566467</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1508374959230423</v>
+        <v>0.2413923740386963</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8691251277923584</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.3990643918514252</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04728355258703232</v>
+        <v>0.2209571003913879</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8828659057617188</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4003851711750031</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2545383274555206</v>
+        <v>0.2327876538038254</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5281620025634766</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.3990726172924042</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01558306626975536</v>
+        <v>0.01666406914591789</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5232300758361816</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8865017294883728</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02974922209978104</v>
+        <v>0.1319662928581238</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5424840450286865</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.3990552127361298</v>
       </c>
       <c r="W204" t="n">
-        <v>0.03676344081759453</v>
+        <v>0.02057182975113392</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5254621505737305</v>
       </c>
       <c r="V205" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5135794281959534</v>
       </c>
       <c r="W205" t="n">
-        <v>0.2022764682769775</v>
+        <v>0.0001411990961059928</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5266590118408203</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8696218132972717</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01639203168451786</v>
+        <v>0.1176234856247902</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5355939865112305</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.3998807370662689</v>
       </c>
       <c r="W207" t="n">
-        <v>0.000929867965169251</v>
+        <v>0.01841808669269085</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5759999752044678</v>
       </c>
       <c r="V208" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5248479247093201</v>
       </c>
       <c r="W208" t="n">
-        <v>0.05038106441497803</v>
+        <v>0.002616532379761338</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5247800350189209</v>
       </c>
       <c r="V209" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5224888324737549</v>
       </c>
       <c r="W209" t="n">
-        <v>0.001152388053014874</v>
+        <v>5.249608875601552e-06</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5281009674072266</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.871055543422699</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01222323719412088</v>
+        <v>0.1176178380846977</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285990238189697</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.3999837040901184</v>
       </c>
       <c r="W211" t="n">
-        <v>0.09325336664915085</v>
+        <v>0.01654190011322498</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5227119922637939</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4003786146640778</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0003098544257227331</v>
+        <v>0.01496545504778624</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.55399489402771</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8672344088554382</v>
       </c>
       <c r="W213" t="n">
-        <v>0.00397485913708806</v>
+        <v>0.09811899065971375</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.871071457862854</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01467913202941418</v>
+        <v>0.1147890463471413</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5457550883293152</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0131251085549593</v>
+        <v>0.0001861890923464671</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5320541858673096</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.3991754353046417</v>
       </c>
       <c r="W216" t="n">
-        <v>0.004654743708670139</v>
+        <v>0.01765676215291023</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5239830017089844</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.515225350856781</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0113114332780242</v>
+        <v>7.669645128771663e-05</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5320918560028076</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.4003823697566986</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0007746750488877296</v>
+        <v>0.01734738796949387</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8623168468475342</v>
       </c>
       <c r="W219" t="n">
-        <v>0.09408850222826004</v>
+        <v>0.1101662367582321</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5284748077392578</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5313020944595337</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03157688304781914</v>
+        <v>7.993549843376968e-06</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5291659832000732</v>
       </c>
       <c r="V221" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8736475110054016</v>
       </c>
       <c r="W221" t="n">
-        <v>0.1992825269699097</v>
+        <v>0.1186675205826759</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3965609073638916</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4003451466560364</v>
       </c>
       <c r="W222" t="n">
-        <v>0.03629900142550468</v>
+        <v>1.432046701665968e-05</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4020388126373291</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.399042934179306</v>
       </c>
       <c r="W223" t="n">
-        <v>0.08831747621297836</v>
+        <v>8.975287528301124e-06</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3959829807281494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.3992732167243958</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01684397645294666</v>
+        <v>1.082565268006874e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3968210220336914</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5097003579139709</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03448311612010002</v>
+        <v>0.01274174451828003</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4008128643035889</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5228689908981323</v>
       </c>
       <c r="W226" t="n">
-        <v>0.002506150165572762</v>
+        <v>0.01489769760519266</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4058020114898682</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.539266049861908</v>
       </c>
       <c r="W227" t="n">
-        <v>0.03295562788844109</v>
+        <v>0.01781264878809452</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4005289077758789</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5076023936271667</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01093470398336649</v>
+        <v>0.01146473176777363</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4071900844573975</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8818567395210266</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0008315980667248368</v>
+        <v>0.225308433175087</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4014549255371094</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4003680348396301</v>
       </c>
       <c r="W230" t="n">
-        <v>0.003886724123731256</v>
+        <v>1.181331413135922e-06</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.399465799331665</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8593725562095642</v>
       </c>
       <c r="W231" t="n">
-        <v>0.003802472725510597</v>
+        <v>0.2115142196416855</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.423166036605835</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8752906322479248</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01024471875280142</v>
+        <v>0.2044166475534439</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4035780429840088</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.4004088342189789</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01476819254457951</v>
+        <v>1.0043883776234e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.401951789855957</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5161521434783936</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03037683852016926</v>
+        <v>0.01304172072559595</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051239490509033</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8819857239723206</v>
       </c>
       <c r="W235" t="n">
-        <v>0.007336233276873827</v>
+        <v>0.227397158741951</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4031229019165039</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.3999708890914917</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0002111019421136007</v>
+        <v>9.935184607456904e-06</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4201900959014893</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8891233205795288</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02785632014274597</v>
+        <v>0.2198983728885651</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3967459201812744</v>
       </c>
       <c r="V238" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4023329019546509</v>
       </c>
       <c r="W238" t="n">
-        <v>0.3350482583045959</v>
+        <v>3.121436384390108e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3987691402435303</v>
       </c>
       <c r="V239" t="n">
-        <v>0.699232816696167</v>
+        <v>0.3998026549816132</v>
       </c>
       <c r="W239" t="n">
-        <v>0.09027842432260513</v>
+        <v>1.068152755578922e-06</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3924760818481445</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.5665596723556519</v>
       </c>
       <c r="W240" t="n">
-        <v>0.03354352712631226</v>
+        <v>0.03030509687960148</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4018580913543701</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4006159901618958</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06373665481805801</v>
+        <v>1.542815425636945e-06</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8965730667114258</v>
       </c>
       <c r="V242" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4022326171398163</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2293640971183777</v>
+        <v>0.2443724870681763</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.3999674320220947</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1464228630065918</v>
+        <v>0.2590978145599365</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8760650157928467</v>
       </c>
       <c r="V244" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5300822854042053</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1483462303876877</v>
+        <v>0.1197040528059006</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791601657867432</v>
       </c>
       <c r="V245" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8926897644996643</v>
       </c>
       <c r="W245" t="n">
-        <v>0.009389098733663559</v>
+        <v>0.0001830500405048952</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9324619770050049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.5164587497711182</v>
       </c>
       <c r="W246" t="n">
-        <v>0.001825891435146332</v>
+        <v>0.1730586886405945</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8800458908081055</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.4022621214389801</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0514260046184063</v>
+        <v>0.228277325630188</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8793540000915527</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5094709992408752</v>
       </c>
       <c r="W248" t="n">
-        <v>0.213184580206871</v>
+        <v>0.1368134319782257</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8786931037902832</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4003984034061432</v>
       </c>
       <c r="W249" t="n">
-        <v>0.08296637982130051</v>
+        <v>0.2287658154964447</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9309940338134766</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5209300518035889</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2050869315862656</v>
+        <v>0.1681524664163589</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892269134521484</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5352531671524048</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1477082967758179</v>
+        <v>0.125297412276268</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8891749382019043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.3990607857704163</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1327636688947678</v>
+        <v>0.2402118891477585</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8780548572540283</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8712549209594727</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2780464887619019</v>
+        <v>4.623913264367729e-05</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9389069080352783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.4009235799312592</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01802857965230942</v>
+        <v>0.2894260287284851</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8801581859588623</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5160422921180725</v>
       </c>
       <c r="W255" t="n">
-        <v>0.14127117395401</v>
+        <v>0.1325803846120834</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8771109580993652</v>
       </c>
       <c r="V256" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.3990505337715149</v>
       </c>
       <c r="W256" t="n">
-        <v>0.009728784672915936</v>
+        <v>0.2285417765378952</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8745999336242676</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5148082375526428</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1706425547599792</v>
+        <v>0.1294500678777695</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9290149211883545</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8641905784606934</v>
       </c>
       <c r="W258" t="n">
-        <v>0.0754639133810997</v>
+        <v>0.004202195443212986</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823690414428711</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.515800952911377</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1771627217531204</v>
+        <v>0.1343721598386765</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8781278133392334</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.40257328748703</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1249905750155449</v>
+        <v>0.2261521071195602</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8748369216918945</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5181254744529724</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2090279012918472</v>
+        <v>0.1272430568933487</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5938420295715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5032716989517212</v>
       </c>
       <c r="W262" t="n">
-        <v>0.009772373363375664</v>
+        <v>0.008202984929084778</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5308761596679688</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8741795420646667</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0006920513114891946</v>
+        <v>0.1178572103381157</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.53078293800354</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8671793341636658</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01506537850946188</v>
+        <v>0.1131625324487686</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.3999724090099335</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01310535427182913</v>
+        <v>0.01746033690869808</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.526785135269165</v>
       </c>
       <c r="V266" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5249831080436707</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02381390891969204</v>
+        <v>3.247302174713695e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5287060737609863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5063251852989197</v>
       </c>
       <c r="W267" t="n">
-        <v>0.07614268362522125</v>
+        <v>0.0005009041633456945</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5373499393463135</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.861716091632843</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01345360744744539</v>
+        <v>0.1052134037017822</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5332040786743164</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.4003555774688721</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01454319152981043</v>
+        <v>0.0176487248390913</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5291488170623779</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5389243960380554</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0006522912881337106</v>
+        <v>9.556194709148258e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5307879447937012</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.3991677761077881</v>
       </c>
       <c r="W271" t="n">
-        <v>3.852745430776849e-05</v>
+        <v>0.01732386834919453</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5585048198699951</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5278247594833374</v>
       </c>
       <c r="W272" t="n">
-        <v>0.004625794012099504</v>
+        <v>0.0009412661311216652</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5304770469665527</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5373266935348511</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01498293876647949</v>
+        <v>4.691765934694558e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5393650531768799</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5354921221733093</v>
       </c>
       <c r="W274" t="n">
-        <v>0.00134352408349514</v>
+        <v>1.499959489592584e-05</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.530526876449585</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.3990647196769714</v>
       </c>
       <c r="W275" t="n">
-        <v>0.004493869841098785</v>
+        <v>0.01728229783475399</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247819423675537</v>
       </c>
       <c r="V276" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5166134834289551</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02340955473482609</v>
+        <v>6.672371819149703e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5311920642852783</v>
       </c>
       <c r="V277" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8713961243629456</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01289116125553846</v>
+        <v>0.1157388016581535</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5867609977722168</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8687396645545959</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01569978147745132</v>
+        <v>0.07951197028160095</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5344638824462891</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.5305855274200439</v>
       </c>
       <c r="W279" t="n">
-        <v>8.636354323243722e-05</v>
+        <v>1.50416381075047e-05</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5314650535583496</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8927444219589233</v>
       </c>
       <c r="W280" t="n">
-        <v>4.457956674741581e-05</v>
+        <v>0.1305227875709534</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5317761898040771</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3998382985591888</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02368707209825516</v>
+        <v>0.0174076072871685</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4230308532714844</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.399063915014267</v>
       </c>
       <c r="W282" t="n">
-        <v>0.005223487969487906</v>
+        <v>0.0005744141526520252</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3990850448608398</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.3998790085315704</v>
       </c>
       <c r="W283" t="n">
-        <v>0.00233629671856761</v>
+        <v>6.30378337973525e-07</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4070529937744141</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8879444599151611</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06080534309148788</v>
+        <v>0.2312566041946411</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4048349857330322</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.4009504318237305</v>
       </c>
       <c r="W285" t="n">
-        <v>0.002924121916294098</v>
+        <v>1.50897594721755e-05</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.406702995300293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.525722324848175</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1823478788137436</v>
+        <v>0.0141656007617712</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4059619903564453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5234886407852173</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0001368475641356781</v>
+        <v>0.01381251402199268</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4372608661651611</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8605668544769287</v>
       </c>
       <c r="W288" t="n">
-        <v>0.007295081857591867</v>
+        <v>0.1791879534721375</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4214448928833008</v>
       </c>
       <c r="V289" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8675087094306946</v>
       </c>
       <c r="W289" t="n">
-        <v>0.08225319534540176</v>
+        <v>0.1989729255437851</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5159353613853455</v>
       </c>
       <c r="W290" t="n">
-        <v>0.009823762811720371</v>
+        <v>0.01217808574438095</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4069550037384033</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.3998419940471649</v>
       </c>
       <c r="W291" t="n">
-        <v>0.00127327477093786</v>
+        <v>5.059490649728104e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062590599060059</v>
       </c>
       <c r="V292" t="n">
-        <v>0.652911365032196</v>
+        <v>0.3997861742973328</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06083735823631287</v>
+        <v>4.189824903733097e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4088070392608643</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5164597034454346</v>
       </c>
       <c r="W293" t="n">
-        <v>0.006563544739037752</v>
+        <v>0.01158909592777491</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4034960269927979</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.5234682559967041</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1854236871004105</v>
+        <v>0.01439333613961935</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058558940887451</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8758174777030945</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01438770163804293</v>
+        <v>0.2208638936281204</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4321548938751221</v>
       </c>
       <c r="V296" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8689566850662231</v>
       </c>
       <c r="W296" t="n">
-        <v>0.006628086324781179</v>
+        <v>0.1907958090305328</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4095630645751953</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5311900973320007</v>
       </c>
       <c r="W297" t="n">
-        <v>0.03287389874458313</v>
+        <v>0.01479313522577286</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4084219932556152</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8874605298042297</v>
       </c>
       <c r="W298" t="n">
-        <v>8.471855835523456e-05</v>
+        <v>0.2294779121875763</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4173779487609863</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4003653824329376</v>
       </c>
       <c r="W299" t="n">
-        <v>0.005399872548878193</v>
+        <v>0.0002894274075515568</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4374079704284668</v>
       </c>
       <c r="V300" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5229363441467285</v>
       </c>
       <c r="W300" t="n">
-        <v>0.04672671854496002</v>
+        <v>0.007315102498978376</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4077270030975342</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8750711679458618</v>
       </c>
       <c r="W301" t="n">
-        <v>0.009219883009791374</v>
+        <v>0.2184105664491653</v>
       </c>
     </row>
     <row r="302" spans="1:23">
